--- a/lab4/lab4-flu-yo.xlsx
+++ b/lab4/lab4-flu-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97864264-B7FE-4B5F-A767-31E269B25F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B2986-2E64-45F8-801E-E5EEF7D4F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>n</t>
   </si>
@@ -109,6 +109,9 @@
   <si>
     <t>w</t>
   </si>
+  <si>
+    <t>เฉลี่ย</t>
+  </si>
 </sst>
 </file>
 
@@ -127,15 +130,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -143,15 +176,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +394,2579 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>หน้า</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4-8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11118217084322109"/>
+          <c:y val="0.16919820506307678"/>
+          <c:w val="0.84977208610578303"/>
+          <c:h val="0.57417802613383007"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>r-Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3A9-4BE6-9784-B5799E5EC17C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>r-H</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3A9-4BE6-9784-B5799E5EC17C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70186479"/>
+        <c:axId val="43025023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70186479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>r(mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43025023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43025023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Z,H(mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70186479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>หน้า</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4-9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>r2-Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.511135188482911E-2"/>
+                  <c:y val="0.10465089566211226"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E44-47C4-80FD-32DADF99B3B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>r2-H</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0819619958949273E-2"/>
+                  <c:y val="-1.315351171913139E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E44-47C4-80FD-32DADF99B3B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70186479"/>
+        <c:axId val="43025023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70186479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>r2(mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43025023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43025023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Z,H(mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70186479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0176F126-5D3A-9948-DAC1-0280C28BD9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A17EBCE-0EDB-4D1F-BF85-BE7D9C28A328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874060B-6D82-1841-9C91-544FF131202E}">
-  <dimension ref="B3:M52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,1037 +3283,1533 @@
     <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>23.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>8.0169999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>23.82</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>7.9089999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>23.66</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>7.9630000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
         <v>7.9630000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>77</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="1"/>
+      <c r="G10" s="17">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="13">
         <f>H10^2</f>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="9">
         <v>20</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="13">
         <f>(J10-J$10)</f>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="9">
         <v>77</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="13">
         <f>L10-L$10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>80</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1"/>
+      <c r="G11" s="17">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>20</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="13">
         <f t="shared" ref="I11:I19" si="0">H11^2</f>
         <v>400</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="9">
         <v>22</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="13">
         <f t="shared" ref="K11:K19" si="1">(J11-J$10)</f>
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="9">
         <v>80</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="13">
         <f t="shared" ref="M11:M19" si="2">L11-L$10</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="17">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>25</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>83</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="1"/>
+      <c r="G12" s="17">
         <v>3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>30</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="9">
         <v>25</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="9">
         <v>83</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>40</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>28</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>88</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="1"/>
+      <c r="G13" s="17">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>40</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="9">
         <v>28</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="9">
         <v>88</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="13">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="17">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>31</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>93</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="1"/>
+      <c r="G14" s="17">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>50</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="9">
         <v>31</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="9">
         <v>93</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="13">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>60</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>34</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>99</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="1"/>
+      <c r="G15" s="17">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>60</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="9">
         <v>34</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="9">
         <v>99</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="13">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <v>70</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>38</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>107</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="1"/>
+      <c r="G16" s="17">
         <v>7</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>70</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="9">
         <v>38</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="9">
         <v>107</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="13">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="17">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>80</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
         <v>42</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>116</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="1"/>
+      <c r="G17" s="17">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>80</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="9">
         <v>42</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="9">
         <v>116</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="13">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="17">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>90</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>46</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>126</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="1"/>
+      <c r="G18" s="17">
         <v>9</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>90</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="13">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="9">
         <v>46</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="9">
         <v>126</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="13">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>100</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>51</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>140</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="1"/>
+      <c r="G19" s="17">
         <v>10</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>100</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="9">
         <v>51</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="9">
         <v>140</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="13">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="17">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="13">
         <f>I10</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="13">
         <f>K10</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="13">
         <f>C25^2</f>
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="13">
         <f>C25*D25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="13">
         <f t="shared" ref="C26:C34" si="3">I11</f>
         <v>400</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="13">
         <f t="shared" ref="D26:D34" si="4">K11</f>
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="13">
         <f t="shared" ref="E26:E34" si="5">C26^2</f>
         <v>160000</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="13">
         <f t="shared" ref="F26:F34" si="6">C26*D26</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="17">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="13">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="13">
         <f t="shared" si="5"/>
         <v>810000</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="13">
         <f t="shared" si="6"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="17">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="13">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="13">
         <f t="shared" si="5"/>
         <v>2560000</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="13">
         <f t="shared" si="6"/>
         <v>12800</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="17">
         <v>5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="13">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="13">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="13">
         <f t="shared" si="5"/>
         <v>6250000</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="13">
         <f t="shared" si="6"/>
         <v>27500</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="17">
         <v>6</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="13">
         <f t="shared" si="3"/>
         <v>3600</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="13">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="13">
         <f t="shared" si="5"/>
         <v>12960000</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="13">
         <f t="shared" si="6"/>
         <v>50400</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="17">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="13">
         <f t="shared" si="3"/>
         <v>4900</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="13">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="13">
         <f t="shared" si="5"/>
         <v>24010000</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="13">
         <f t="shared" si="6"/>
         <v>88200</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="17">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="13">
         <f t="shared" si="3"/>
         <v>6400</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="13">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="13">
         <f t="shared" si="5"/>
         <v>40960000</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="13">
         <f t="shared" si="6"/>
         <v>140800</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="17">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <f t="shared" si="3"/>
         <v>8100</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="13">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="13">
         <f t="shared" si="5"/>
         <v>65610000</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="13">
         <f t="shared" si="6"/>
         <v>210600</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="17">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="13">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="13">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="13">
         <f t="shared" si="5"/>
         <v>100000000</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="13">
         <f t="shared" si="6"/>
         <v>310000</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="18">
         <f>SUM(C25:C34)</f>
         <v>38400</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="18">
         <f t="shared" ref="D35:F35" si="7">SUM(D25:D34)</f>
         <v>137</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="18">
         <f t="shared" si="7"/>
         <v>253320000</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="18">
         <f t="shared" si="7"/>
         <v>845600</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="17">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="13">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="13">
         <f>M10</f>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="13">
         <f>C38^2</f>
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="13">
         <f>C38*D38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="17">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="13">
         <f t="shared" ref="C39:C47" si="8">C26</f>
         <v>400</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="13">
         <f t="shared" ref="D39:D47" si="9">M11</f>
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="13">
         <f t="shared" ref="E39:E47" si="10">C39^2</f>
         <v>160000</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="13">
         <f t="shared" ref="F39:F47" si="11">C39*D39</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="17">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="13">
         <f t="shared" si="8"/>
         <v>900</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="13">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="13">
         <f t="shared" si="10"/>
         <v>810000</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="13">
         <f t="shared" si="11"/>
         <v>5400</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="17">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="13">
         <f t="shared" si="8"/>
         <v>1600</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="13">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="13">
         <f t="shared" si="10"/>
         <v>2560000</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="13">
         <f t="shared" si="11"/>
         <v>17600</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="17">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="13">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="13">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="13">
         <f t="shared" si="10"/>
         <v>6250000</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="13">
         <f t="shared" si="11"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="17">
         <v>6</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <f t="shared" si="8"/>
         <v>3600</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="13">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="13">
         <f t="shared" si="10"/>
         <v>12960000</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="13">
         <f t="shared" si="11"/>
         <v>79200</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="17">
         <v>7</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="13">
         <f t="shared" si="8"/>
         <v>4900</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="13">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="13">
         <f t="shared" si="10"/>
         <v>24010000</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="13">
         <f t="shared" si="11"/>
         <v>147000</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="17">
         <v>8</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="13">
         <f t="shared" si="8"/>
         <v>6400</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="13">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="13">
         <f t="shared" si="10"/>
         <v>40960000</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="13">
         <f t="shared" si="11"/>
         <v>249600</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="17">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="13">
         <f t="shared" si="8"/>
         <v>8100</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="13">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="13">
         <f t="shared" si="10"/>
         <v>65610000</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="13">
         <f t="shared" si="11"/>
         <v>396900</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="17">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="13">
         <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="13">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="13">
         <f t="shared" si="10"/>
         <v>100000000</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="13">
         <f t="shared" si="11"/>
         <v>630000</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="18">
         <f>SUM(C38:C47)</f>
         <v>38400</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="18">
         <f t="shared" ref="D48" si="12">SUM(D38:D47)</f>
         <v>239</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="18">
         <f t="shared" ref="E48" si="13">SUM(E38:E47)</f>
         <v>253320000</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="18">
         <f t="shared" ref="F48" si="14">SUM(F38:F47)</f>
         <v>1566900</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="13">
         <f>AVERAGE(C25:C34)</f>
         <v>3840</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="13">
         <f>AVERAGE(D25:D34)</f>
         <v>13.7</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="14">
         <f>((F35/10)-(C51*D51))/((E35/10)-(C51^2))</f>
         <v>3.018212045643467E-3</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="15">
         <f>D51-(E51*C51)</f>
         <v>2.110065744729086</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="15">
         <f>SQRT(E51*9.81*2*1000)</f>
         <v>7.6952790940631139</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="13">
         <f>AVERAGE(C38:C47)</f>
         <v>3840</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="13">
         <f>AVERAGE(D38:D47)</f>
         <v>23.9</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="14">
         <f>((F48/10)-(C52*D52))/((E48/10)-(C52^2))</f>
         <v>6.1318295171163004E-3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="15">
         <f>D52-(E52*C52)</f>
         <v>0.35377465427340482</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="15">
         <f>SQRT(E52*9.81*1000)</f>
         <v>7.7558524717087618</v>
       </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab4/lab4-flu-yo.xlsx
+++ b/lab4/lab4-flu-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B2986-2E64-45F8-801E-E5EEF7D4F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A81BC7C-048A-4684-9BEB-C7FDEF5A8E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>n</t>
   </si>
@@ -112,6 +112,15 @@
   <si>
     <t>เฉลี่ย</t>
   </si>
+  <si>
+    <t>Y = m(x)+c</t>
+  </si>
+  <si>
+    <t>H = 0.0061(r2) + 0.3538</t>
+  </si>
+  <si>
+    <t>Z = 0.003(r2) + 2.1101</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +392,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2930,16 +2948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3268,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874060B-6D82-1841-9C91-544FF131202E}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3278,7 +3296,8 @@
     <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3454,28 +3473,27 @@
         <v>6</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -3492,31 +3510,30 @@
         <v>77</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="17">
+      <c r="H10" s="17">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="19">
         <v>0</v>
       </c>
-      <c r="I10" s="13">
-        <f>H10^2</f>
+      <c r="J10" s="19">
+        <f>I10^2</f>
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="19">
         <v>20</v>
       </c>
-      <c r="K10" s="13">
-        <f>(J10-J$10)</f>
+      <c r="L10" s="19">
+        <f>(K10-K$10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="19">
         <v>77</v>
       </c>
-      <c r="M10" s="13">
-        <f>L10-L$10</f>
+      <c r="N10" s="19">
+        <f>M10-M$10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -3533,31 +3550,30 @@
         <v>80</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="17">
+      <c r="H11" s="17">
         <v>2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="19">
         <v>20</v>
       </c>
-      <c r="I11" s="13">
-        <f t="shared" ref="I11:I19" si="0">H11^2</f>
+      <c r="J11" s="19">
+        <f t="shared" ref="J11:J19" si="0">I11^2</f>
         <v>400</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="19">
         <v>22</v>
       </c>
-      <c r="K11" s="13">
-        <f t="shared" ref="K11:K19" si="1">(J11-J$10)</f>
+      <c r="L11" s="19">
+        <f>(K11-K$10)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="19">
         <v>80</v>
       </c>
-      <c r="M11" s="13">
-        <f t="shared" ref="M11:M19" si="2">L11-L$10</f>
+      <c r="N11" s="19">
+        <f>M11-M$10</f>
         <v>3</v>
       </c>
-      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -3574,31 +3590,30 @@
         <v>83</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="17">
+      <c r="H12" s="17">
         <v>3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="19">
         <v>30</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="19">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="19">
         <v>25</v>
       </c>
-      <c r="K12" s="13">
-        <f t="shared" si="1"/>
+      <c r="L12" s="19">
+        <f>(K12-K$10)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="19">
         <v>83</v>
       </c>
-      <c r="M12" s="13">
-        <f t="shared" si="2"/>
+      <c r="N12" s="19">
+        <f>M12-M$10</f>
         <v>6</v>
       </c>
-      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -3615,31 +3630,30 @@
         <v>88</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="17">
+      <c r="H13" s="17">
         <v>4</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="19">
         <v>40</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="19">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="19">
         <v>28</v>
       </c>
-      <c r="K13" s="13">
-        <f t="shared" si="1"/>
+      <c r="L13" s="19">
+        <f>(K13-K$10)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="9">
+      <c r="M13" s="19">
         <v>88</v>
       </c>
-      <c r="M13" s="13">
-        <f t="shared" si="2"/>
+      <c r="N13" s="19">
+        <f>M13-M$10</f>
         <v>11</v>
       </c>
-      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -3656,31 +3670,30 @@
         <v>93</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="17">
+      <c r="H14" s="17">
         <v>5</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="19">
         <v>50</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J14" s="19">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="19">
         <v>31</v>
       </c>
-      <c r="K14" s="13">
-        <f t="shared" si="1"/>
+      <c r="L14" s="19">
+        <f>(K14-K$10)</f>
         <v>11</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="19">
         <v>93</v>
       </c>
-      <c r="M14" s="13">
-        <f t="shared" si="2"/>
+      <c r="N14" s="19">
+        <f>M14-M$10</f>
         <v>16</v>
       </c>
-      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -3697,31 +3710,30 @@
         <v>99</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="17">
+      <c r="H15" s="17">
         <v>6</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="19">
         <v>60</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="19">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J15" s="9">
+      <c r="K15" s="19">
         <v>34</v>
       </c>
-      <c r="K15" s="13">
-        <f t="shared" si="1"/>
+      <c r="L15" s="19">
+        <f>(K15-K$10)</f>
         <v>14</v>
       </c>
-      <c r="L15" s="9">
+      <c r="M15" s="19">
         <v>99</v>
       </c>
-      <c r="M15" s="13">
-        <f t="shared" si="2"/>
+      <c r="N15" s="19">
+        <f>M15-M$10</f>
         <v>22</v>
       </c>
-      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -3738,31 +3750,30 @@
         <v>107</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="17">
+      <c r="H16" s="17">
         <v>7</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="19">
         <v>70</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="19">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="19">
         <v>38</v>
       </c>
-      <c r="K16" s="13">
-        <f t="shared" si="1"/>
+      <c r="L16" s="19">
+        <f>(K16-K$10)</f>
         <v>18</v>
       </c>
-      <c r="L16" s="9">
+      <c r="M16" s="19">
         <v>107</v>
       </c>
-      <c r="M16" s="13">
-        <f t="shared" si="2"/>
+      <c r="N16" s="19">
+        <f>M16-M$10</f>
         <v>30</v>
       </c>
-      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -3779,31 +3790,30 @@
         <v>116</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="17">
+      <c r="H17" s="17">
         <v>8</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="19">
         <v>80</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="19">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="J17" s="9">
+      <c r="K17" s="19">
         <v>42</v>
       </c>
-      <c r="K17" s="13">
-        <f t="shared" si="1"/>
+      <c r="L17" s="19">
+        <f>(K17-K$10)</f>
         <v>22</v>
       </c>
-      <c r="L17" s="9">
+      <c r="M17" s="19">
         <v>116</v>
       </c>
-      <c r="M17" s="13">
-        <f t="shared" si="2"/>
+      <c r="N17" s="19">
+        <f>M17-M$10</f>
         <v>39</v>
       </c>
-      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -3820,31 +3830,30 @@
         <v>126</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="17">
+      <c r="H18" s="17">
         <v>9</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="19">
         <v>90</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="19">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="19">
         <v>46</v>
       </c>
-      <c r="K18" s="13">
-        <f t="shared" si="1"/>
+      <c r="L18" s="19">
+        <f>(K18-K$10)</f>
         <v>26</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="19">
         <v>126</v>
       </c>
-      <c r="M18" s="13">
-        <f t="shared" si="2"/>
+      <c r="N18" s="19">
+        <f>M18-M$10</f>
         <v>49</v>
       </c>
-      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -3861,31 +3870,30 @@
         <v>140</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="17">
+      <c r="H19" s="17">
         <v>10</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="19">
         <v>100</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J19" s="19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="19">
         <v>51</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" si="1"/>
+      <c r="L19" s="19">
+        <f>(K19-K$10)</f>
         <v>31</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="19">
         <v>140</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" si="2"/>
+      <c r="N19" s="19">
+        <f>M19-M$10</f>
         <v>63</v>
       </c>
-      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -3983,11 +3991,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13">
-        <f>I10</f>
+        <f>J10</f>
         <v>0</v>
       </c>
       <c r="D25" s="13">
-        <f>K10</f>
+        <f>L10</f>
         <v>0</v>
       </c>
       <c r="E25" s="13">
@@ -4013,19 +4021,19 @@
         <v>2</v>
       </c>
       <c r="C26" s="13">
-        <f t="shared" ref="C26:C34" si="3">I11</f>
+        <f>J11</f>
         <v>400</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" ref="D26:D34" si="4">K11</f>
+        <f>L11</f>
         <v>2</v>
       </c>
       <c r="E26" s="13">
-        <f t="shared" ref="E26:E34" si="5">C26^2</f>
+        <f t="shared" ref="E26:E34" si="1">C26^2</f>
         <v>160000</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" ref="F26:F34" si="6">C26*D26</f>
+        <f t="shared" ref="F26:F34" si="2">C26*D26</f>
         <v>800</v>
       </c>
       <c r="G26" s="1"/>
@@ -4043,19 +4051,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="13">
-        <f t="shared" si="3"/>
+        <f>J12</f>
         <v>900</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="4"/>
+        <f>L12</f>
         <v>5</v>
       </c>
       <c r="E27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>810000</v>
       </c>
       <c r="F27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4500</v>
       </c>
       <c r="G27" s="1"/>
@@ -4073,19 +4081,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="13">
-        <f t="shared" si="3"/>
+        <f>J13</f>
         <v>1600</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="4"/>
+        <f>L13</f>
         <v>8</v>
       </c>
       <c r="E28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2560000</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12800</v>
       </c>
       <c r="G28" s="1"/>
@@ -4103,19 +4111,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="13">
-        <f t="shared" si="3"/>
+        <f>J14</f>
         <v>2500</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="4"/>
+        <f>L14</f>
         <v>11</v>
       </c>
       <c r="E29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6250000</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>27500</v>
       </c>
       <c r="G29" s="1"/>
@@ -4133,19 +4141,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="13">
-        <f t="shared" si="3"/>
+        <f>J15</f>
         <v>3600</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="4"/>
+        <f>L15</f>
         <v>14</v>
       </c>
       <c r="E30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>12960000</v>
       </c>
       <c r="F30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
       <c r="G30" s="1"/>
@@ -4163,19 +4171,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="13">
-        <f t="shared" si="3"/>
+        <f>J16</f>
         <v>4900</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="4"/>
+        <f>L16</f>
         <v>18</v>
       </c>
       <c r="E31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>24010000</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>88200</v>
       </c>
       <c r="G31" s="1"/>
@@ -4193,19 +4201,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="13">
-        <f t="shared" si="3"/>
+        <f>J17</f>
         <v>6400</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="4"/>
+        <f>L17</f>
         <v>22</v>
       </c>
       <c r="E32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>40960000</v>
       </c>
       <c r="F32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>140800</v>
       </c>
       <c r="G32" s="1"/>
@@ -4223,19 +4231,19 @@
         <v>9</v>
       </c>
       <c r="C33" s="13">
-        <f t="shared" si="3"/>
+        <f>J18</f>
         <v>8100</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="4"/>
+        <f>L18</f>
         <v>26</v>
       </c>
       <c r="E33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>65610000</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>210600</v>
       </c>
       <c r="G33" s="1"/>
@@ -4253,19 +4261,19 @@
         <v>10</v>
       </c>
       <c r="C34" s="13">
-        <f t="shared" si="3"/>
+        <f>J19</f>
         <v>10000</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="4"/>
+        <f>L19</f>
         <v>31</v>
       </c>
       <c r="E34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>310000</v>
       </c>
       <c r="G34" s="1"/>
@@ -4287,15 +4295,15 @@
         <v>38400</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" ref="D35:F35" si="7">SUM(D25:D34)</f>
+        <f t="shared" ref="D35:F35" si="3">SUM(D25:D34)</f>
         <v>137</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>253320000</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>845600</v>
       </c>
       <c r="G35" s="1"/>
@@ -4359,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="13">
-        <f>M10</f>
+        <f>N10</f>
         <v>0</v>
       </c>
       <c r="E38" s="13">
@@ -4385,19 +4393,19 @@
         <v>2</v>
       </c>
       <c r="C39" s="13">
-        <f t="shared" ref="C39:C47" si="8">C26</f>
+        <f t="shared" ref="C39:C47" si="4">C26</f>
         <v>400</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" ref="D39:D47" si="9">M11</f>
+        <f>N11</f>
         <v>3</v>
       </c>
       <c r="E39" s="13">
-        <f t="shared" ref="E39:E47" si="10">C39^2</f>
+        <f t="shared" ref="E39:E47" si="5">C39^2</f>
         <v>160000</v>
       </c>
       <c r="F39" s="13">
-        <f t="shared" ref="F39:F47" si="11">C39*D39</f>
+        <f t="shared" ref="F39:F47" si="6">C39*D39</f>
         <v>1200</v>
       </c>
       <c r="G39" s="1"/>
@@ -4415,19 +4423,19 @@
         <v>3</v>
       </c>
       <c r="C40" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="9"/>
+        <f>N12</f>
         <v>6</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>810000</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>5400</v>
       </c>
       <c r="G40" s="1"/>
@@ -4445,19 +4453,19 @@
         <v>4</v>
       </c>
       <c r="C41" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="9"/>
+        <f>N13</f>
         <v>11</v>
       </c>
       <c r="E41" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2560000</v>
       </c>
       <c r="F41" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>17600</v>
       </c>
       <c r="G41" s="1"/>
@@ -4475,19 +4483,19 @@
         <v>5</v>
       </c>
       <c r="C42" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2500</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="9"/>
+        <f>N14</f>
         <v>16</v>
       </c>
       <c r="E42" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>6250000</v>
       </c>
       <c r="F42" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>40000</v>
       </c>
       <c r="G42" s="1"/>
@@ -4505,19 +4513,19 @@
         <v>6</v>
       </c>
       <c r="C43" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="9"/>
+        <f>N15</f>
         <v>22</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>12960000</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>79200</v>
       </c>
       <c r="G43" s="1"/>
@@ -4535,19 +4543,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4900</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="9"/>
+        <f>N16</f>
         <v>30</v>
       </c>
       <c r="E44" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>24010000</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>147000</v>
       </c>
       <c r="G44" s="1"/>
@@ -4565,19 +4573,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6400</v>
       </c>
       <c r="D45" s="13">
-        <f t="shared" si="9"/>
+        <f>N17</f>
         <v>39</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>40960000</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>249600</v>
       </c>
       <c r="G45" s="1"/>
@@ -4595,19 +4603,19 @@
         <v>9</v>
       </c>
       <c r="C46" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>8100</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="9"/>
+        <f>N18</f>
         <v>49</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>65610000</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>396900</v>
       </c>
       <c r="G46" s="1"/>
@@ -4625,19 +4633,19 @@
         <v>10</v>
       </c>
       <c r="C47" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="9"/>
+        <f>N19</f>
         <v>63</v>
       </c>
       <c r="E47" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>100000000</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>630000</v>
       </c>
       <c r="G47" s="1"/>
@@ -4659,15 +4667,15 @@
         <v>38400</v>
       </c>
       <c r="D48" s="18">
-        <f t="shared" ref="D48" si="12">SUM(D38:D47)</f>
+        <f t="shared" ref="D48" si="7">SUM(D38:D47)</f>
         <v>239</v>
       </c>
       <c r="E48" s="18">
-        <f t="shared" ref="E48" si="13">SUM(E38:E47)</f>
+        <f t="shared" ref="E48" si="8">SUM(E38:E47)</f>
         <v>253320000</v>
       </c>
       <c r="F48" s="18">
-        <f t="shared" ref="F48" si="14">SUM(F38:F47)</f>
+        <f t="shared" ref="F48" si="9">SUM(F38:F47)</f>
         <v>1566900</v>
       </c>
       <c r="G48" s="1"/>
@@ -4713,9 +4721,11 @@
         <v>22</v>
       </c>
       <c r="G50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4744,11 +4754,13 @@
         <f>D51-(E51*C51)</f>
         <v>2.110065744729086</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="15">
         <f>SQRT(E51*9.81*2*1000)</f>
         <v>7.6952790940631139</v>
       </c>
-      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4777,11 +4789,13 @@
         <f>D52-(E52*C52)</f>
         <v>0.35377465427340482</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="15">
         <f>SQRT(E52*9.81*1000)</f>
         <v>7.7558524717087618</v>
       </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>

--- a/lab4/lab4-flu-yo.xlsx
+++ b/lab4/lab4-flu-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A81BC7C-048A-4684-9BEB-C7FDEF5A8E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2038FF8-05DA-41BC-8B4B-CC17343E373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,12 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,6 +389,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +511,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -624,7 +626,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -763,6 +767,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -882,6 +900,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1499,6 +1531,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1617,6 +1663,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2913,15 +2973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>1367790</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2948,16 +3008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3286,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874060B-6D82-1841-9C91-544FF131202E}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3424,11 +3484,12 @@
     </row>
     <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
+        <f>AVERAGE(D4:D6)</f>
         <v>7.9630000000000001</v>
       </c>
       <c r="E7" s="1"/>
@@ -3460,44 +3521,44 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
       <c r="C10" s="9">
@@ -3510,34 +3571,34 @@
         <v>77</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>1</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>0</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <f>I10^2</f>
         <v>0</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>20</v>
       </c>
-      <c r="L10" s="19">
-        <f>(K10-K$10)</f>
+      <c r="L10" s="17">
+        <f t="shared" ref="L10:L19" si="0">(K10-K$10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <v>77</v>
       </c>
-      <c r="N10" s="19">
-        <f>M10-M$10</f>
+      <c r="N10" s="17">
+        <f t="shared" ref="N10:N19" si="1">M10-M$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
       <c r="C11" s="9">
@@ -3550,34 +3611,34 @@
         <v>80</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>20</v>
       </c>
-      <c r="J11" s="19">
-        <f t="shared" ref="J11:J19" si="0">I11^2</f>
+      <c r="J11" s="17">
+        <f t="shared" ref="J11:J19" si="2">I11^2</f>
         <v>400</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>22</v>
       </c>
-      <c r="L11" s="19">
-        <f>(K11-K$10)</f>
+      <c r="L11" s="17">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <v>80</v>
       </c>
-      <c r="N11" s="19">
-        <f>M11-M$10</f>
+      <c r="N11" s="17">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>3</v>
       </c>
       <c r="C12" s="9">
@@ -3590,34 +3651,34 @@
         <v>83</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>30</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="K12" s="17">
+        <v>25</v>
+      </c>
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="K12" s="19">
-        <v>25</v>
-      </c>
-      <c r="L12" s="19">
-        <f>(K12-K$10)</f>
         <v>5</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <v>83</v>
       </c>
-      <c r="N12" s="19">
-        <f>M12-M$10</f>
+      <c r="N12" s="17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>4</v>
       </c>
       <c r="C13" s="9">
@@ -3630,34 +3691,34 @@
         <v>88</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <v>4</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>40</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="K13" s="17">
+        <v>28</v>
+      </c>
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="K13" s="19">
-        <v>28</v>
-      </c>
-      <c r="L13" s="19">
-        <f>(K13-K$10)</f>
         <v>8</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>88</v>
       </c>
-      <c r="N13" s="19">
-        <f>M13-M$10</f>
+      <c r="N13" s="17">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>5</v>
       </c>
       <c r="C14" s="9">
@@ -3670,34 +3731,34 @@
         <v>93</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>5</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>50</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="K14" s="17">
+        <v>31</v>
+      </c>
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="K14" s="19">
-        <v>31</v>
-      </c>
-      <c r="L14" s="19">
-        <f>(K14-K$10)</f>
         <v>11</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>93</v>
       </c>
-      <c r="N14" s="19">
-        <f>M14-M$10</f>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>6</v>
       </c>
       <c r="C15" s="9">
@@ -3710,34 +3771,34 @@
         <v>99</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>6</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>60</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="K15" s="17">
+        <v>34</v>
+      </c>
+      <c r="L15" s="17">
         <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="K15" s="19">
-        <v>34</v>
-      </c>
-      <c r="L15" s="19">
-        <f>(K15-K$10)</f>
         <v>14</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>99</v>
       </c>
-      <c r="N15" s="19">
-        <f>M15-M$10</f>
+      <c r="N15" s="17">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>7</v>
       </c>
       <c r="C16" s="9">
@@ -3750,34 +3811,34 @@
         <v>107</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>7</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>70</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+      <c r="K16" s="17">
+        <v>38</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
-        <v>4900</v>
-      </c>
-      <c r="K16" s="19">
-        <v>38</v>
-      </c>
-      <c r="L16" s="19">
-        <f>(K16-K$10)</f>
         <v>18</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <v>107</v>
       </c>
-      <c r="N16" s="19">
-        <f>M16-M$10</f>
+      <c r="N16" s="17">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>8</v>
       </c>
       <c r="C17" s="9">
@@ -3790,34 +3851,34 @@
         <v>116</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>8</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <v>80</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="K17" s="17">
+        <v>42</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="K17" s="19">
-        <v>42</v>
-      </c>
-      <c r="L17" s="19">
-        <f>(K17-K$10)</f>
         <v>22</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <v>116</v>
       </c>
-      <c r="N17" s="19">
-        <f>M17-M$10</f>
+      <c r="N17" s="17">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>9</v>
       </c>
       <c r="C18" s="9">
@@ -3830,34 +3891,34 @@
         <v>126</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>9</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="17">
         <v>90</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="17">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="K18" s="17">
+        <v>46</v>
+      </c>
+      <c r="L18" s="17">
         <f t="shared" si="0"/>
-        <v>8100</v>
-      </c>
-      <c r="K18" s="19">
-        <v>46</v>
-      </c>
-      <c r="L18" s="19">
-        <f>(K18-K$10)</f>
         <v>26</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <v>126</v>
       </c>
-      <c r="N18" s="19">
-        <f>M18-M$10</f>
+      <c r="N18" s="17">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>10</v>
       </c>
       <c r="C19" s="9">
@@ -3870,28 +3931,28 @@
         <v>140</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>10</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <v>100</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="K19" s="17">
+        <v>51</v>
+      </c>
+      <c r="L19" s="17">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="K19" s="19">
-        <v>51</v>
-      </c>
-      <c r="L19" s="19">
-        <f>(K19-K$10)</f>
         <v>31</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <v>140</v>
       </c>
-      <c r="N19" s="19">
-        <f>M19-M$10</f>
+      <c r="N19" s="17">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
@@ -3961,19 +4022,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="1"/>
@@ -3987,22 +4048,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>1</v>
       </c>
-      <c r="C25" s="13">
-        <f>J10</f>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:C34" si="3">J10</f>
         <v>0</v>
       </c>
-      <c r="D25" s="13">
-        <f>L10</f>
+      <c r="D25" s="11">
+        <f t="shared" ref="D25:D34" si="4">L10</f>
         <v>0</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <f>C25^2</f>
         <v>0</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <f>C25*D25</f>
         <v>0</v>
       </c>
@@ -4017,23 +4078,23 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="C26" s="13">
-        <f>J11</f>
+      <c r="C26" s="11">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="D26" s="13">
-        <f>L11</f>
+      <c r="D26" s="11">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E26" s="13">
-        <f t="shared" ref="E26:E34" si="1">C26^2</f>
+      <c r="E26" s="11">
+        <f t="shared" ref="E26:E34" si="5">C26^2</f>
         <v>160000</v>
       </c>
-      <c r="F26" s="13">
-        <f t="shared" ref="F26:F34" si="2">C26*D26</f>
+      <c r="F26" s="11">
+        <f t="shared" ref="F26:F34" si="6">C26*D26</f>
         <v>800</v>
       </c>
       <c r="G26" s="1"/>
@@ -4047,23 +4108,23 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>3</v>
       </c>
-      <c r="C27" s="13">
-        <f>J12</f>
+      <c r="C27" s="11">
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="D27" s="13">
-        <f>L12</f>
+      <c r="D27" s="11">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E27" s="13">
-        <f t="shared" si="1"/>
+      <c r="E27" s="11">
+        <f t="shared" si="5"/>
         <v>810000</v>
       </c>
-      <c r="F27" s="13">
-        <f t="shared" si="2"/>
+      <c r="F27" s="11">
+        <f t="shared" si="6"/>
         <v>4500</v>
       </c>
       <c r="G27" s="1"/>
@@ -4077,23 +4138,23 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>4</v>
       </c>
-      <c r="C28" s="13">
-        <f>J13</f>
+      <c r="C28" s="11">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="D28" s="13">
-        <f>L13</f>
+      <c r="D28" s="11">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E28" s="13">
-        <f t="shared" si="1"/>
+      <c r="E28" s="11">
+        <f t="shared" si="5"/>
         <v>2560000</v>
       </c>
-      <c r="F28" s="13">
-        <f t="shared" si="2"/>
+      <c r="F28" s="11">
+        <f t="shared" si="6"/>
         <v>12800</v>
       </c>
       <c r="G28" s="1"/>
@@ -4107,23 +4168,23 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>5</v>
       </c>
-      <c r="C29" s="13">
-        <f>J14</f>
+      <c r="C29" s="11">
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="D29" s="13">
-        <f>L14</f>
+      <c r="D29" s="11">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E29" s="13">
-        <f t="shared" si="1"/>
+      <c r="E29" s="11">
+        <f t="shared" si="5"/>
         <v>6250000</v>
       </c>
-      <c r="F29" s="13">
-        <f t="shared" si="2"/>
+      <c r="F29" s="11">
+        <f t="shared" si="6"/>
         <v>27500</v>
       </c>
       <c r="G29" s="1"/>
@@ -4137,23 +4198,23 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>6</v>
       </c>
-      <c r="C30" s="13">
-        <f>J15</f>
+      <c r="C30" s="11">
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
-      <c r="D30" s="13">
-        <f>L15</f>
+      <c r="D30" s="11">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="E30" s="13">
-        <f t="shared" si="1"/>
+      <c r="E30" s="11">
+        <f t="shared" si="5"/>
         <v>12960000</v>
       </c>
-      <c r="F30" s="13">
-        <f t="shared" si="2"/>
+      <c r="F30" s="11">
+        <f t="shared" si="6"/>
         <v>50400</v>
       </c>
       <c r="G30" s="1"/>
@@ -4167,23 +4228,23 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <v>7</v>
       </c>
-      <c r="C31" s="13">
-        <f>J16</f>
+      <c r="C31" s="11">
+        <f t="shared" si="3"/>
         <v>4900</v>
       </c>
-      <c r="D31" s="13">
-        <f>L16</f>
+      <c r="D31" s="11">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E31" s="13">
-        <f t="shared" si="1"/>
+      <c r="E31" s="11">
+        <f t="shared" si="5"/>
         <v>24010000</v>
       </c>
-      <c r="F31" s="13">
-        <f t="shared" si="2"/>
+      <c r="F31" s="11">
+        <f t="shared" si="6"/>
         <v>88200</v>
       </c>
       <c r="G31" s="1"/>
@@ -4197,23 +4258,23 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>8</v>
       </c>
-      <c r="C32" s="13">
-        <f>J17</f>
+      <c r="C32" s="11">
+        <f t="shared" si="3"/>
         <v>6400</v>
       </c>
-      <c r="D32" s="13">
-        <f>L17</f>
+      <c r="D32" s="11">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E32" s="13">
-        <f t="shared" si="1"/>
+      <c r="E32" s="11">
+        <f t="shared" si="5"/>
         <v>40960000</v>
       </c>
-      <c r="F32" s="13">
-        <f t="shared" si="2"/>
+      <c r="F32" s="11">
+        <f t="shared" si="6"/>
         <v>140800</v>
       </c>
       <c r="G32" s="1"/>
@@ -4227,23 +4288,23 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>9</v>
       </c>
-      <c r="C33" s="13">
-        <f>J18</f>
+      <c r="C33" s="11">
+        <f t="shared" si="3"/>
         <v>8100</v>
       </c>
-      <c r="D33" s="13">
-        <f>L18</f>
+      <c r="D33" s="11">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E33" s="13">
-        <f t="shared" si="1"/>
+      <c r="E33" s="11">
+        <f t="shared" si="5"/>
         <v>65610000</v>
       </c>
-      <c r="F33" s="13">
-        <f t="shared" si="2"/>
+      <c r="F33" s="11">
+        <f t="shared" si="6"/>
         <v>210600</v>
       </c>
       <c r="G33" s="1"/>
@@ -4257,23 +4318,23 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>10</v>
       </c>
-      <c r="C34" s="13">
-        <f>J19</f>
+      <c r="C34" s="11">
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="D34" s="13">
-        <f>L19</f>
+      <c r="D34" s="11">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E34" s="13">
-        <f t="shared" si="1"/>
+      <c r="E34" s="11">
+        <f t="shared" si="5"/>
         <v>100000000</v>
       </c>
-      <c r="F34" s="13">
-        <f t="shared" si="2"/>
+      <c r="F34" s="11">
+        <f t="shared" si="6"/>
         <v>310000</v>
       </c>
       <c r="G34" s="1"/>
@@ -4287,23 +4348,23 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <f>SUM(C25:C34)</f>
         <v>38400</v>
       </c>
-      <c r="D35" s="18">
-        <f t="shared" ref="D35:F35" si="3">SUM(D25:D34)</f>
+      <c r="D35" s="16">
+        <f t="shared" ref="D35:F35" si="7">SUM(D25:D34)</f>
         <v>137</v>
       </c>
-      <c r="E35" s="18">
-        <f t="shared" si="3"/>
+      <c r="E35" s="16">
+        <f t="shared" si="7"/>
         <v>253320000</v>
       </c>
-      <c r="F35" s="18">
-        <f t="shared" si="3"/>
+      <c r="F35" s="16">
+        <f t="shared" si="7"/>
         <v>845600</v>
       </c>
       <c r="G35" s="1"/>
@@ -4333,19 +4394,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1"/>
@@ -4359,22 +4420,22 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>1</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="D38" s="13">
-        <f>N10</f>
+      <c r="D38" s="11">
+        <f t="shared" ref="D38:D47" si="8">N10</f>
         <v>0</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <f>C38^2</f>
         <v>0</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <f>C38*D38</f>
         <v>0</v>
       </c>
@@ -4389,23 +4450,23 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="17">
+      <c r="B39" s="15">
         <v>2</v>
       </c>
-      <c r="C39" s="13">
-        <f t="shared" ref="C39:C47" si="4">C26</f>
+      <c r="C39" s="11">
+        <f t="shared" ref="C39:C47" si="9">C26</f>
         <v>400</v>
       </c>
-      <c r="D39" s="13">
-        <f>N11</f>
+      <c r="D39" s="11">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E39" s="13">
-        <f t="shared" ref="E39:E47" si="5">C39^2</f>
+      <c r="E39" s="11">
+        <f t="shared" ref="E39:E47" si="10">C39^2</f>
         <v>160000</v>
       </c>
-      <c r="F39" s="13">
-        <f t="shared" ref="F39:F47" si="6">C39*D39</f>
+      <c r="F39" s="11">
+        <f t="shared" ref="F39:F47" si="11">C39*D39</f>
         <v>1200</v>
       </c>
       <c r="G39" s="1"/>
@@ -4419,23 +4480,23 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>3</v>
       </c>
-      <c r="C40" s="13">
-        <f t="shared" si="4"/>
+      <c r="C40" s="11">
+        <f t="shared" si="9"/>
         <v>900</v>
       </c>
-      <c r="D40" s="13">
-        <f>N12</f>
+      <c r="D40" s="11">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="E40" s="13">
-        <f t="shared" si="5"/>
+      <c r="E40" s="11">
+        <f t="shared" si="10"/>
         <v>810000</v>
       </c>
-      <c r="F40" s="13">
-        <f t="shared" si="6"/>
+      <c r="F40" s="11">
+        <f t="shared" si="11"/>
         <v>5400</v>
       </c>
       <c r="G40" s="1"/>
@@ -4449,23 +4510,23 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="17">
+      <c r="B41" s="15">
         <v>4</v>
       </c>
-      <c r="C41" s="13">
-        <f t="shared" si="4"/>
+      <c r="C41" s="11">
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
-      <c r="D41" s="13">
-        <f>N13</f>
+      <c r="D41" s="11">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="E41" s="13">
-        <f t="shared" si="5"/>
+      <c r="E41" s="11">
+        <f t="shared" si="10"/>
         <v>2560000</v>
       </c>
-      <c r="F41" s="13">
-        <f t="shared" si="6"/>
+      <c r="F41" s="11">
+        <f t="shared" si="11"/>
         <v>17600</v>
       </c>
       <c r="G41" s="1"/>
@@ -4479,23 +4540,23 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>5</v>
       </c>
-      <c r="C42" s="13">
-        <f t="shared" si="4"/>
+      <c r="C42" s="11">
+        <f t="shared" si="9"/>
         <v>2500</v>
       </c>
-      <c r="D42" s="13">
-        <f>N14</f>
+      <c r="D42" s="11">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="E42" s="13">
-        <f t="shared" si="5"/>
+      <c r="E42" s="11">
+        <f t="shared" si="10"/>
         <v>6250000</v>
       </c>
-      <c r="F42" s="13">
-        <f t="shared" si="6"/>
+      <c r="F42" s="11">
+        <f t="shared" si="11"/>
         <v>40000</v>
       </c>
       <c r="G42" s="1"/>
@@ -4509,23 +4570,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="17">
+      <c r="B43" s="15">
         <v>6</v>
       </c>
-      <c r="C43" s="13">
-        <f t="shared" si="4"/>
+      <c r="C43" s="11">
+        <f t="shared" si="9"/>
         <v>3600</v>
       </c>
-      <c r="D43" s="13">
-        <f>N15</f>
+      <c r="D43" s="11">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="E43" s="13">
-        <f t="shared" si="5"/>
+      <c r="E43" s="11">
+        <f t="shared" si="10"/>
         <v>12960000</v>
       </c>
-      <c r="F43" s="13">
-        <f t="shared" si="6"/>
+      <c r="F43" s="11">
+        <f t="shared" si="11"/>
         <v>79200</v>
       </c>
       <c r="G43" s="1"/>
@@ -4539,23 +4600,23 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>7</v>
       </c>
-      <c r="C44" s="13">
-        <f t="shared" si="4"/>
+      <c r="C44" s="11">
+        <f t="shared" si="9"/>
         <v>4900</v>
       </c>
-      <c r="D44" s="13">
-        <f>N16</f>
+      <c r="D44" s="11">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="E44" s="13">
-        <f t="shared" si="5"/>
+      <c r="E44" s="11">
+        <f t="shared" si="10"/>
         <v>24010000</v>
       </c>
-      <c r="F44" s="13">
-        <f t="shared" si="6"/>
+      <c r="F44" s="11">
+        <f t="shared" si="11"/>
         <v>147000</v>
       </c>
       <c r="G44" s="1"/>
@@ -4569,23 +4630,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="17">
+      <c r="B45" s="15">
         <v>8</v>
       </c>
-      <c r="C45" s="13">
-        <f t="shared" si="4"/>
+      <c r="C45" s="11">
+        <f t="shared" si="9"/>
         <v>6400</v>
       </c>
-      <c r="D45" s="13">
-        <f>N17</f>
+      <c r="D45" s="11">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="E45" s="13">
-        <f t="shared" si="5"/>
+      <c r="E45" s="11">
+        <f t="shared" si="10"/>
         <v>40960000</v>
       </c>
-      <c r="F45" s="13">
-        <f t="shared" si="6"/>
+      <c r="F45" s="11">
+        <f t="shared" si="11"/>
         <v>249600</v>
       </c>
       <c r="G45" s="1"/>
@@ -4599,23 +4660,23 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>9</v>
       </c>
-      <c r="C46" s="13">
-        <f t="shared" si="4"/>
+      <c r="C46" s="11">
+        <f t="shared" si="9"/>
         <v>8100</v>
       </c>
-      <c r="D46" s="13">
-        <f>N18</f>
+      <c r="D46" s="11">
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="E46" s="13">
-        <f t="shared" si="5"/>
+      <c r="E46" s="11">
+        <f t="shared" si="10"/>
         <v>65610000</v>
       </c>
-      <c r="F46" s="13">
-        <f t="shared" si="6"/>
+      <c r="F46" s="11">
+        <f t="shared" si="11"/>
         <v>396900</v>
       </c>
       <c r="G46" s="1"/>
@@ -4629,23 +4690,23 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="17">
+      <c r="B47" s="15">
         <v>10</v>
       </c>
-      <c r="C47" s="13">
-        <f t="shared" si="4"/>
+      <c r="C47" s="11">
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="D47" s="13">
-        <f>N19</f>
+      <c r="D47" s="11">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="E47" s="13">
-        <f t="shared" si="5"/>
+      <c r="E47" s="11">
+        <f t="shared" si="10"/>
         <v>100000000</v>
       </c>
-      <c r="F47" s="13">
-        <f t="shared" si="6"/>
+      <c r="F47" s="11">
+        <f t="shared" si="11"/>
         <v>630000</v>
       </c>
       <c r="G47" s="1"/>
@@ -4659,23 +4720,23 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="16">
         <f>SUM(C38:C47)</f>
         <v>38400</v>
       </c>
-      <c r="D48" s="18">
-        <f t="shared" ref="D48" si="7">SUM(D38:D47)</f>
+      <c r="D48" s="16">
+        <f t="shared" ref="D48" si="12">SUM(D38:D47)</f>
         <v>239</v>
       </c>
-      <c r="E48" s="18">
-        <f t="shared" ref="E48" si="8">SUM(E38:E47)</f>
+      <c r="E48" s="16">
+        <f t="shared" ref="E48" si="13">SUM(E38:E47)</f>
         <v>253320000</v>
       </c>
-      <c r="F48" s="18">
-        <f t="shared" ref="F48" si="9">SUM(F38:F47)</f>
+      <c r="F48" s="16">
+        <f t="shared" ref="F48" si="14">SUM(F38:F47)</f>
         <v>1566900</v>
       </c>
       <c r="G48" s="1"/>
@@ -4705,25 +4766,25 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="1"/>
@@ -4735,29 +4796,29 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <f>AVERAGE(C25:C34)</f>
         <v>3840</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="11">
         <f>AVERAGE(D25:D34)</f>
         <v>13.7</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <f>((F35/10)-(C51*D51))/((E35/10)-(C51^2))</f>
         <v>3.018212045643467E-3</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="13">
         <f>D51-(E51*C51)</f>
         <v>2.110065744729086</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="13">
         <f>SQRT(E51*9.81*2*1000)</f>
         <v>7.6952790940631139</v>
       </c>
@@ -4770,29 +4831,29 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="11">
         <f>AVERAGE(C38:C47)</f>
         <v>3840</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="11">
         <f>AVERAGE(D38:D47)</f>
         <v>23.9</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="12">
         <f>((F48/10)-(C52*D52))/((E48/10)-(C52^2))</f>
         <v>6.1318295171163004E-3</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="13">
         <f>D52-(E52*C52)</f>
         <v>0.35377465427340482</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="13">
         <f>SQRT(E52*9.81*1000)</f>
         <v>7.7558524717087618</v>
       </c>
